--- a/職務経歴.xlsx
+++ b/職務経歴.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yossy\Documents\resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\hub\my\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B727BD-7714-49F3-AE13-9DE6664956F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCFBCD4-4E84-4971-BF31-A614ADDF2252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="322" windowWidth="15390" windowHeight="10283" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="職務経歴" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
   <si>
     <t>期間</t>
     <rPh sb="0" eb="2">
@@ -112,173 +112,6 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[プロジェクト名]
-3D点群生成ツール
-[概要]
-複数台のカメラで撮影した画像からリアルタイムで3D点群を生成するツールの研究開発
- [担当フェーズ]
-実装(撮影ツールのUI、USBカメラ制御、Raspberry Pi連携)</t>
-    <rPh sb="26" eb="29">
-      <t>フクスウダイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>サツエイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>テングン</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ケンキュウ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>サツエイ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[プロジェクト名]
-マルウェア通信検出AI
-[概要]
-車両通信におけるマルウェア通信を検出するAIの開発
- [担当フェーズ]
-学習データ作成(マルウェア通信データの収集、正常通信データに混ぜ込みを行うツールの設計・実装)</t>
-    <rPh sb="15" eb="17">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケンシュツ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シャリョウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ケンシュツ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>シュウシュウ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[プロジェクト名]
-GStreamerモザイクプラグイン
-[概要]
-大手半導体メーカー製AIモジュールのサンプルアプリ開発
- [担当フェーズ]
-AIモデルの学習、変換
-実装
-テスト(単体、結合、総合)</t>
-    <rPh sb="35" eb="37">
-      <t>オオテ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>ハンドウタイ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[プロジェクト名]
-ハンディスキャナ連携アプリ
-[概要]
-RFIDやQRコードを読み取って他端末に連携するAndroidアプリの改修
- [担当フェーズ]
-実装、テスト(単体、結合、総合)</t>
-    <rPh sb="41" eb="42">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>タンマツ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>カイシュウ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -496,42 +329,6 @@
     <t>3ヶ月</t>
     <rPh sb="2" eb="3">
       <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[プロジェクト名]
-リッチクライアント開発フレームワーク
-[概要]
-リッチクライアント開発フレームワークの保守
-顧客サーバのリプレース対応
- [担当フェーズ]
-実装
-テスト(単体、結合、総合)
-問い合わせ対応</t>
-    <rPh sb="44" eb="46">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ホシュ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -717,75 +514,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[プロジェクト名]
-金融機関向けWebアプリケーション
-[概要]
-管理対象サーバを一括で操作するWebアプリケーションの保守、UI改善、機能追加
- [担当フェーズ]
-実装
-テスト(単体、結合、総合)</t>
-    <rPh sb="61" eb="63">
-      <t>ホシュ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>カイゼン</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[プロジェクト名]
-AIカメラ
-[概要]
-大手メーカー製Android端末にプレインストールされるカメラアプリのAI機能の保守、OSバージョンアップ対応、新規機種での動作確認
- [担当フェーズ]
-AIモデル改善
-実装
-テスト(単体、結合、総合)</t>
-    <rPh sb="22" eb="24">
-      <t>オオテ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>タンマツ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ホシュ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>キシュ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>カイゼン</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">[OS]
 Android
 Ubuntu
@@ -824,6 +552,381 @@
     <rPh sb="31" eb="33">
       <t>コウチク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[プロジェクト名]
+金融機関向けWebアプリケーション開発
+[概要]
+管理対象サーバを一括で操作するWebアプリケーションの保守、UI改善、機能追加
+ [担当フェーズ]
+実装
+テスト(単体、結合、総合)</t>
+    <rPh sb="27" eb="29">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[プロジェクト名]
+リッチクライアント開発フレームワーク保守
+[概要]
+リッチクライアント開発フレームワークの保守
+顧客サーバのリプレース対応
+ [担当フェーズ]
+実装
+テスト(単体、結合、総合)
+問い合わせ対応</t>
+    <rPh sb="28" eb="30">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[プロジェクト名]
+ハンディスキャナ連携アプリ開発
+[概要]
+RFIDやQRコードを読み取って他端末に連携するAndroidアプリの改修
+ [担当フェーズ]
+実装、テスト(単体、結合、総合)</t>
+    <rPh sb="23" eb="25">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[プロジェクト名]
+AIカメラ保守
+[概要]
+大手メーカー製Android端末にプレインストールされるカメラアプリのAI機能の保守、OSバージョンアップ対応、新規機種での動作確認
+ [担当フェーズ]
+AIモデル改善
+実装
+テスト(単体、結合、総合)</t>
+    <rPh sb="15" eb="17">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>オオテ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>キシュ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[プロジェクト名]
+3D点群生成ツール開発
+[概要]
+複数台のカメラで撮影した画像からリアルタイムで3D点群を生成するツールの研究開発
+ [担当フェーズ]
+実装(撮影ツールのUI、USBカメラ制御、Raspberry Pi連携)</t>
+    <rPh sb="19" eb="21">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>フクスウダイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サツエイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>テングン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ケンキュウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>サツエイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[プロジェクト名]
+マルウェア通信検出AI開発
+[概要]
+車両通信におけるマルウェア通信を検出するAIの開発
+ [担当フェーズ]
+学習データ作成(マルウェア通信データの収集、正常通信データに混ぜ込みを行うツールの設計・実装)</t>
+    <rPh sb="15" eb="17">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[プロジェクト名]
+GStreamerモザイクプラグイン開発
+[概要]
+大手半導体メーカー製AIモジュールのサンプルアプリ開発
+ [担当フェーズ]
+AIモデルの学習、変換
+実装
+テスト(単体、結合、総合)</t>
+    <rPh sb="28" eb="30">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>オオテ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ハンドウタイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023年3月
+～
+現在</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[プロジェクト名]
+トレーサビリティシステム開発
+[概要]
+QRコードを用いたトレーサビリティシステム開発
+ [担当フェーズ]
+画像処理
+AIモデルの学習、変換、組み込み
+実装</t>
+    <rPh sb="22" eb="24">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[プロジェクト要員]
+8名
+[役割]
+メンバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Azure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクラム開発(DevOPS)、Webアプリのデプロイ、AIモデル作成(Custom Vision)</t>
+    <rPh sb="4" eb="6">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H社</t>
+    <rPh sb="1" eb="2">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[言語]
+C#、Python
+[ツール]
+Azure
+Visual Studio
+ONNX
+OpenCV</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -942,6 +1045,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,9 +1056,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,10 +1072,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1238,26 +1337,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F14"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="2.9375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="2.8984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.0625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.09765625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1271,40 +1370,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="176.25" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:6" ht="180" x14ac:dyDescent="0.45">
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="193.9" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:6" ht="198" x14ac:dyDescent="0.45">
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1318,12 +1417,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="158.65" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:6" ht="162" x14ac:dyDescent="0.45">
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
@@ -1332,74 +1431,107 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="211.5" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:6" ht="216" x14ac:dyDescent="0.45">
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="211.5" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:6" ht="216" x14ac:dyDescent="0.45">
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="176.25" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:6" ht="180" x14ac:dyDescent="0.45">
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="176.25" x14ac:dyDescent="0.7">
+    <row r="13" spans="2:6" ht="180" x14ac:dyDescent="0.45">
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="193.9" x14ac:dyDescent="0.7">
+    <row r="14" spans="2:6" ht="198" x14ac:dyDescent="0.45">
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="180" x14ac:dyDescent="0.45">
+      <c r="C18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1411,223 +1543,235 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE094C3-8BA5-4622-B511-A47DF52EB234}">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.9375" customWidth="1"/>
-    <col min="2" max="2" width="13.9375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.9375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="10"/>
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B4" s="9"/>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B5" s="9" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="10"/>
+      <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="10"/>
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="10"/>
+      <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B6" s="9"/>
-      <c r="C6" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="4" t="s">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="10"/>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B7" s="9"/>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="8"/>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="8"/>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="8"/>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="10"/>
+      <c r="C15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B8" s="9"/>
-      <c r="C8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B9" s="9"/>
-      <c r="C9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B11" s="11"/>
-      <c r="C11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B12" s="11"/>
-      <c r="C12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B13" s="11"/>
-      <c r="C13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B15" s="9"/>
-      <c r="C15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.7">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="8"/>
       <c r="C17" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="9"/>
+      <c r="C18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B5:B9"/>

--- a/職務経歴.xlsx
+++ b/職務経歴.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\hub\my\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCFBCD4-4E84-4971-BF31-A614ADDF2252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E759ABF8-E44E-40BD-A793-AFB90786C2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="職務経歴" sheetId="1" r:id="rId1"/>
-    <sheet name="技術スキル" sheetId="2" r:id="rId2"/>
+    <sheet name="職務経歴(前職)" sheetId="1" r:id="rId1"/>
+    <sheet name="職務経歴(現職)" sheetId="3" r:id="rId2"/>
+    <sheet name="技術スキル" sheetId="2" r:id="rId3"/>
+    <sheet name="Azure" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="117">
   <si>
     <t>期間</t>
     <rPh sb="0" eb="2">
@@ -162,13 +164,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>インストール、設定、運用ができる</t>
-    <rPh sb="10" eb="12">
-      <t>ウンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4年</t>
     <rPh sb="1" eb="2">
       <t>ネン</t>
@@ -202,13 +197,6 @@
   </si>
   <si>
     <t>Python</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3年</t>
-    <rPh sb="1" eb="2">
-      <t>ネン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -319,21 +307,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7ヶ月</t>
-    <rPh sb="2" eb="3">
-      <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3ヶ月</t>
     <rPh sb="2" eb="3">
       <t>ゲツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>簡単なSQL文をそらで書ける</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -848,7 +825,145 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>[プロジェクト要員]
+8名
+[役割]
+メンバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Azure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H社</t>
+    <rPh sb="1" eb="2">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年3月
+～
+2024年5月</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラウド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[言語]
+C#、Python
+[ツール]
+ONNX
+OpenCV
+Flask
+TypeScript
+React</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[プロジェクト要員]
+6名
+[役割]
+メンバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[言語]
+Python
+Markdown
+[ツール]
+Docker Scout
+Ubuntu
+SBOM
+TPM
+Raspberry Pi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[プロジェクト概要]
+QRコードを用いたトレーサビリティシステム開発
+ [担当フェーズ]
+画像処理
+AIモデルの学習、変換、組み込み
+実装、運用、保守</t>
+    <rPh sb="7" eb="9">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ホシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[プロジェクト概要]
+車載用エッジデバイス開発支援
+ [担当フェーズ]
+・モジュール開発支援
+・デバイス情報等を収集、アップロード、監視する仕組みの構築</t>
+    <rPh sb="7" eb="9">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>2023年3月
+～
+2024年2月</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年6月
 ～
 現在</t>
     <rPh sb="4" eb="5">
@@ -863,70 +978,290 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[プロジェクト名]
-トレーサビリティシステム開発
-[概要]
-QRコードを用いたトレーサビリティシステム開発
+    <t xml:space="preserve">[Dynamics 365]
+Guides
+Remote Assist
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[プロジェクト概要]
+XRデバイス等を用いた業務効率化支援
  [担当フェーズ]
-画像処理
-AIモデルの学習、変換、組み込み
-実装</t>
+・XRデバイスの選定・活用・運用案策定
+・XRデバイスのプロビジョニング
+・PoC開発
+・(開発予定)AIチャットボット</t>
+    <rPh sb="7" eb="9">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モチ</t>
+    </rPh>
     <rPh sb="22" eb="24">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>コウリツカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センテイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>サクテイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
       <t>カイハツ</t>
     </rPh>
-    <rPh sb="27" eb="29">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[プロジェクト要員]
-8名
-[役割]
-メンバー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Azure</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクラム開発(DevOPS)、Webアプリのデプロイ、AIモデル作成(Custom Vision)</t>
-    <rPh sb="4" eb="6">
+    <rPh sb="86" eb="88">
       <t>カイハツ</t>
     </rPh>
-    <rPh sb="32" eb="34">
+    <rPh sb="88" eb="90">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[言語]
+C#
+[ツール]
+HoloLens 2
+Unity
+WCD
+Power Apps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5年</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1人でインストール、設定、運用ができる</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ウンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flask</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6カ月</t>
+    <rPh sb="2" eb="3">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6ヶ月</t>
+    <rPh sb="2" eb="3">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラウドの種類</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>App Service</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1人でWebアプリを開発・運用できる</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ウンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Application Insights</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本番環境のWebアプリを監視・運用できる</t>
+    <rPh sb="0" eb="4">
+      <t>ホンバンカンキョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ウンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[Azure]
+OSConfig
+IoT Edge
+Defender for IoT
+Sentinel
+App Service
+Application Insights
+Function
+SQL Database
+Blob Storage
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL Database</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1人でデータベースを構築・運用できる</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ウンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Function</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1人で関数アプリを開発できる</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Blob Storage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1人で</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IoT Edge</t>
+  </si>
+  <si>
+    <t>3カ月</t>
+    <rPh sb="2" eb="3">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1人でエッジデバイスのモジュールを開発できる</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSConfig</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1人でデバイス構成のプロビジョニングや管理をできる</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Azure]
+App Service
+Static Web Apps
+Application Insights
+Function
+SQL Server
+DNSゾーン
+Blob Storage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Static Web Apps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Custom Vision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1人で物体検出モデルを作成できる</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブッタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>H社</t>
-    <rPh sb="1" eb="2">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[言語]
-C#、Python
-[ツール]
-Azure
-Visual Studio
-ONNX
-OpenCV</t>
+    <t>詳細は [Azure] シートを参照</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サンショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -964,7 +1299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1024,11 +1359,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1055,6 +1416,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1337,7 +1704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F18"/>
+  <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1346,14 +1713,14 @@
     <col min="1" max="2" width="2.8984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="44.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.09765625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
@@ -1375,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -1389,10 +1756,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
@@ -1400,7 +1767,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
@@ -1419,10 +1786,10 @@
     </row>
     <row r="9" spans="2:6" ht="162" x14ac:dyDescent="0.45">
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
@@ -1433,13 +1800,13 @@
     </row>
     <row r="10" spans="2:6" ht="216" x14ac:dyDescent="0.45">
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>4</v>
@@ -1450,10 +1817,10 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>7</v>
@@ -1464,10 +1831,10 @@
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>8</v>
@@ -1475,13 +1842,13 @@
     </row>
     <row r="13" spans="2:6" ht="180" x14ac:dyDescent="0.45">
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>8</v>
@@ -1489,49 +1856,16 @@
     </row>
     <row r="14" spans="2:6" ht="198" x14ac:dyDescent="0.45">
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="180" x14ac:dyDescent="0.45">
-      <c r="C18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1542,8 +1876,104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A004C99D-E474-4E57-9B9A-7C2D1B2AAAA4}">
+  <dimension ref="B2:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="2.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.09765625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.09765625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="162" x14ac:dyDescent="0.45">
+      <c r="C4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="198" x14ac:dyDescent="0.45">
+      <c r="C5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="144" x14ac:dyDescent="0.45">
+      <c r="C6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE094C3-8BA5-4622-B511-A47DF52EB234}">
-  <dimension ref="B2:E18"/>
+  <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1552,7 +1982,7 @@
     <col min="1" max="1" width="2.8984375" customWidth="1"/>
     <col min="2" max="2" width="13.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.45">
@@ -1575,208 +2005,378 @@
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="10"/>
       <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="10"/>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="10"/>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="10"/>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="10"/>
       <c r="C9" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B10" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="B10" s="10"/>
       <c r="C10" s="4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B11" s="8"/>
+      <c r="B11" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" s="8"/>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="8"/>
       <c r="C13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="8"/>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="8"/>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="10"/>
+      <c r="C17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B15" s="10"/>
-      <c r="C15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="C18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="8"/>
+      <c r="C19" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="8"/>
-      <c r="C17" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="9"/>
-      <c r="C18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>82</v>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20" s="9"/>
+      <c r="C20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B11:B15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE59B65-9C5F-4AA1-AA71-87165D0DD1F4}">
+  <dimension ref="B2:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="8"/>
+      <c r="C4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="8"/>
+      <c r="C5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="8"/>
+      <c r="C6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="8"/>
+      <c r="C7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="8"/>
+      <c r="C8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="8"/>
+      <c r="C9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="8"/>
+      <c r="C10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="9"/>
+      <c r="C11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
